--- a/report_ca_nhan/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
+++ b/report_ca_nhan/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,6 +684,44 @@
       <c r="T3" t="n">
         <v/>
       </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_ca_nhan/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
+++ b/report_ca_nhan/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
@@ -8,12 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Đơn 1 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Đơn 2 bác sĩ" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Đơn phụ phẫu 1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Đơn phụ phẫu 2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Đơn thu nợ" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -419,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +524,16 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -608,6 +614,12 @@
       <c r="T2" t="n">
         <v/>
       </c>
+      <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -649,79 +661,271 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v/>
-      </c>
-      <c r="J3" t="n">
-        <v/>
+        <v>4000000</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v/>
+        <v>2000000</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="M3" t="n">
-        <v/>
+        <v>6000000</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="n">
-        <v/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
       </c>
       <c r="R3" t="n">
         <v/>
       </c>
-      <c r="S3" t="n">
-        <v/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T3" t="n">
         <v/>
+      </c>
+      <c r="U3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
       <c r="B4" t="n">
-        <v/>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>510</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn Đình Quân</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
       <c r="I4" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>500000</v>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="L4" t="n">
-        <v>8000000</v>
+        <v>500000</v>
       </c>
       <c r="M4" t="n">
-        <v>8000000</v>
+        <v>500000</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>8000000</v>
+        <v>500000</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>512</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ngô Thị Cẩm Phương</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>12500000</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>17500000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>17500000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>17500000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -734,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,6 +1046,322 @@
         <is>
           <t>Phụ phẫu 2</t>
         </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>509</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Ngọc Vàng</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Mở góc mắt</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>512</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ngô Thị Cẩm Phương</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>515</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Khưu Thị Phượng Gấm</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13500000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13500000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>13500000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +1375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,12 +1391,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mã dịch vụ</t>
+          <t>Mã đơn thu nợ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ngày thực hiện</t>
+          <t>Đơn nợ</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -886,503 +1406,102 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Khách hàng</t>
+          <t>Lượng thu</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
+          <t>Ngày thu</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>132</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-196</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>136</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-190</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã đơn thu nợ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Đơn nợ</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Lượng thu</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Ngày thu</t>
-        </is>
-      </c>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_ca_nhan/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
+++ b/report_ca_nhan/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1375,7 +1376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1489,21 +1490,171 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>140</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-442</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>141</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-442</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>144</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-502</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>146</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-198</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/report_ca_nhan/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
+++ b/report_ca_nhan/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,82 +457,107 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Tên dịch vụ</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Sale chính</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Đơn giá gốc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sale phụ</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Upsale</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Đơn giá</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Thanh toán lần đầu</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Trả sau</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Đã thanh toán</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Dư nợ</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Phụ phẫu 1</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -567,59 +592,76 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Cắt mí</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>8000000</v>
       </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
       <c r="K2" t="n">
         <v/>
       </c>
       <c r="L2" t="n">
-        <v>8000000</v>
+        <v/>
       </c>
       <c r="M2" t="n">
         <v>8000000</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>8000000</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
       <c r="U2" t="n">
         <v/>
       </c>
       <c r="V2" t="n">
-        <v/>
+        <v>50000</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -653,61 +695,78 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Mở góc mắt</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>4000000</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>2000000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6000000</v>
       </c>
       <c r="M3" t="n">
         <v>6000000</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>6000000</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="R3" t="n">
-        <v/>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
       <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
         <v>50000</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>820000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>80000</v>
       </c>
     </row>
     <row r="4">
@@ -741,46 +800,48 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>500000</v>
       </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
       <c r="K4" t="n">
         <v/>
       </c>
       <c r="L4" t="n">
-        <v>500000</v>
+        <v/>
       </c>
       <c r="M4" t="n">
         <v>500000</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>500000</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="R4" t="n">
-        <v/>
-      </c>
       <c r="S4" t="n">
         <v/>
       </c>
@@ -788,9 +849,24 @@
         <v/>
       </c>
       <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
         <v>50000</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -825,24 +901,26 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
-      </c>
-      <c r="K5" t="n">
-        <v>3000000</v>
       </c>
       <c r="L5" t="n">
         <v>3000000</v>
@@ -851,22 +929,22 @@
         <v>3000000</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>3000000</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="R5" t="n">
-        <v/>
-      </c>
       <c r="S5" t="n">
         <v/>
       </c>
@@ -874,58 +952,187 @@
         <v/>
       </c>
       <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
         <v>50000</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>180000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>120000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>539</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Trần Thị Thuỳ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>12500000</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>15500000</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
         <v>5000000</v>
       </c>
-      <c r="L6" t="n">
-        <v>17500000</v>
-      </c>
-      <c r="M6" t="n">
-        <v>17500000</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>17500000</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>150000</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
+      <c r="M7" t="n">
+        <v>20500000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>20500000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>20500000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>200000</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2950000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +1146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,82 +1187,107 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Tên dịch vụ</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Sale chính</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Đơn giá gốc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sale phụ</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Upsale</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Đơn giá</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Thanh toán lần đầu</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Trả sau</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Đã thanh toán</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Dư nợ</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Phụ phẫu 1</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -1090,61 +1322,78 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Mở góc mắt</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>4000000</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2000000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6000000</v>
       </c>
       <c r="M2" t="n">
         <v>6000000</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>6000000</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
       <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
         <v>50000</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>820000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>80000</v>
       </c>
     </row>
     <row r="3">
@@ -1178,24 +1427,26 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
-      </c>
-      <c r="K3" t="n">
-        <v>3000000</v>
       </c>
       <c r="L3" t="n">
         <v>3000000</v>
@@ -1204,22 +1455,22 @@
         <v>3000000</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>3000000</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="R3" t="n">
-        <v/>
-      </c>
       <c r="S3" t="n">
         <v/>
       </c>
@@ -1227,10 +1478,25 @@
         <v/>
       </c>
       <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
         <v>50000</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>180000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>120000</v>
       </c>
     </row>
     <row r="4">
@@ -1264,46 +1530,48 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>4500000</v>
       </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
       <c r="K4" t="n">
         <v/>
       </c>
       <c r="L4" t="n">
-        <v>4500000</v>
+        <v/>
       </c>
       <c r="M4" t="n">
         <v>4500000</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4500000</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>4500000</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="R4" t="n">
-        <v/>
-      </c>
       <c r="S4" t="n">
         <v/>
       </c>
@@ -1311,58 +1579,494 @@
         <v/>
       </c>
       <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
         <v>50000</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>675000</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>531</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lê Thị Tuyết Anh</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>260000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>534</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-09-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Khưu Thị Phượng Gấm</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>150000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>538</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ngô Xuân Nhi</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Mũi</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2375000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>539</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Trần Thị Thuỳ</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>25600000</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>38600000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>30100000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>30100000</v>
+      </c>
+      <c r="Q9" t="n">
         <v>8500000</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>13500000</v>
-      </c>
-      <c r="M5" t="n">
-        <v>13500000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>13500000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>150000</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>350000</v>
+      </c>
+      <c r="W9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>4760000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
@@ -1647,14 +2351,255 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Danh mục</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ngày công</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Phụ cấp</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1642857.142857143</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2950000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3010000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1642857.142857143</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1642857.142857143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/report_ca_nhan/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
+++ b/report_ca_nhan/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Đơn 2 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn thu nợ" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Lương" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,7 +593,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Tiểu phẫu</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -652,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1600000</v>
+        <v>1040000</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -695,7 +696,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Tiểu phẫu</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -757,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="Y3" t="n">
         <v>0.04</v>
       </c>
       <c r="Z3" t="n">
-        <v>820000</v>
+        <v>700000</v>
       </c>
       <c r="AA3" t="n">
         <v>80000</v>
@@ -800,7 +801,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -901,7 +902,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1004,7 +1005,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1077,62 +1078,472 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>548</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Nhiên</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>549</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Nhiên</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>120000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>554</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>lê thị bích</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Đại phẫu</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cắt sẹo </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Thảo</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1060000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>566</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Bảo Anh</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>450000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>15500000</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>20500000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>20500000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>20500000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
-        <v>200000</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2950000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>200000</v>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>48200000</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>59200000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>59200000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>59200000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>400000</v>
+      </c>
+      <c r="W11" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.9600000000000001</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>5900000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>440000</v>
       </c>
     </row>
   </sheetData>
@@ -1146,7 +1557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1322,7 +1733,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Tiểu phẫu</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1384,13 +1795,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="Y2" t="n">
         <v>0.04</v>
       </c>
       <c r="Z2" t="n">
-        <v>820000</v>
+        <v>700000</v>
       </c>
       <c r="AA2" t="n">
         <v>80000</v>
@@ -1427,7 +1838,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1530,7 +1941,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1588,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>675000</v>
+        <v>450000</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -1631,7 +2042,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1732,7 +2143,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1833,7 +2244,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Mũi</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1895,13 +2306,13 @@
         <v>50000</v>
       </c>
       <c r="X7" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Y7" t="n">
         <v>0.04</v>
       </c>
       <c r="Z7" t="n">
-        <v>2375000</v>
+        <v>950000</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -1938,7 +2349,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2011,61 +2422,265 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>542</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07-13-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Huỳnh thị bé sáu</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>11500000</v>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v>11500000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>566</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Bảo Anh</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Tiêm</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>450000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>25600000</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>41600000</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
         <v>13000000</v>
       </c>
-      <c r="M9" t="n">
-        <v>38600000</v>
-      </c>
-      <c r="N9" t="n">
-        <v>30100000</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>30100000</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="n">
-        <v>350000</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="M11" t="n">
+        <v>54600000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>43600000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>43600000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>450000</v>
+      </c>
+      <c r="W11" t="n">
         <v>50000</v>
       </c>
-      <c r="X9" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="X11" t="n">
+        <v>0.9800000000000001</v>
+      </c>
+      <c r="Y11" t="n">
         <v>0.12</v>
       </c>
-      <c r="Z9" t="n">
-        <v>4760000</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="Z11" t="n">
+        <v>4790000</v>
+      </c>
+      <c r="AA11" t="n">
         <v>200000</v>
       </c>
     </row>
@@ -2080,7 +2695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2096,12 +2711,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mã đơn thu nợ</t>
+          <t>Mã dịch vụ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Đơn nợ</t>
+          <t>Ngày thực hiện</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -2111,32 +2726,132 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Lượng thu</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Ngày thu</t>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132</v>
+        <v>565</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HD-LUXURY-196</t>
+          <t>07-17-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2144,201 +2859,152 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>6000000</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Sữ Thị Thanh Tuyền</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>07-01-2024</t>
-        </is>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-190</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>07-03-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>140</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-442</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>07-07-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>141</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-442</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>07-07-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>144</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-502</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>07-07-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>146</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-198</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>07-07-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>19000000</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2351,7 +3017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2362,6 +3028,1219 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>notion id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id đơn nợ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>id sale chính</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>id sale phụ</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>id bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>04-21-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>862cb20b-6bc0-44dc-9c77-2530c9289295</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>132</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>02e96089-5b6d-4ac0-b25a-fe2a7137c837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-196</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v/>
+      </c>
+      <c r="Y2" t="n">
+        <v>600000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1020000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>04-16-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>88d7e095-af00-47a6-82ca-368c6339728b</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>136</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>fb7dadd2-75d0-40db-bb11-e23d060e0d89</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-190</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
+      <c r="Q3" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>39000000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
+        <v/>
+      </c>
+      <c r="Y3" t="n">
+        <v>500000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>750000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>06-19-2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fc4e35ab-9e43-4ae3-be2f-317aa19b638b</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>140</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9b808ccf-2311-41f2-b949-9c137995a37f</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-442</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v/>
+      </c>
+      <c r="Q4" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
+        </is>
+      </c>
+      <c r="X4" t="n">
+        <v/>
+      </c>
+      <c r="Y4" t="n">
+        <v>300000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>06-19-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5ac076b8-df5c-4bfb-9e9b-29c50e554cb0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>141</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9b808ccf-2311-41f2-b949-9c137995a37f</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-442</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
+      <c r="Q5" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
+        </is>
+      </c>
+      <c r="X5" t="n">
+        <v/>
+      </c>
+      <c r="Y5" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>200000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>06-30-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>59e6b0af-58c2-40e0-acb9-74a39fc79966</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>144</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7fd92044-b934-43de-9646-21004f1e6711</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-502</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>8450000</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="n">
+        <v>2850000</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4850000</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>f973382b-037a-4eb1-84bc-e9e5318184b8</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v/>
+      </c>
+      <c r="Y6" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>260000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04-25-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>05531b63-f428-4450-86ab-4cb31890c9b7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>146</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2f04163e-5cde-4c1f-86f8-62cc6a7fb1ee</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-198</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v/>
+      </c>
+      <c r="Y7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>02-27-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>63356797-89d1-493a-98a6-7be16bbe2231</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>147</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1936e1d1-5f3d-4bd1-b469-a1951eadb081</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-120</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>12500000</v>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>11500000</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>3d301dfe-6e3d-4d28-a249-1fd5fac9abd3</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>05-30-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>a2d355ac-963d-458b-92c8-6ab6d77e9bd6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>150</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>f064dabe-fb0d-40bd-9289-33c46d63ae56</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-367</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>65000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>04-16-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>393f2f76-00f6-413d-8833-3d400436176b</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>155</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>02c49e05-3b89-4b64-a5cb-fcfb2bbdc46c</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-192</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>14600000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v>420000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>546000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>24700000</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>173950000</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="n">
+        <v>78350000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>145950000</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="n">
+        <v>2470000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3341000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Danh mục</t>
         </is>
       </c>
@@ -2376,7 +4255,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -2386,7 +4265,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>420000</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="4">
@@ -2396,7 +4275,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1642857.142857143</v>
+        <v>2190476.19047619</v>
       </c>
     </row>
     <row r="5">
@@ -2406,7 +4285,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2950000</v>
+        <v>7821000</v>
       </c>
     </row>
     <row r="6">
@@ -2426,7 +4305,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3010000</v>
+        <v>4275000</v>
       </c>
     </row>
     <row r="8">
@@ -2436,7 +4315,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1080000</v>
       </c>
     </row>
     <row r="9">
@@ -2462,27 +4341,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1642857.142857143</v>
+        <v>-2450000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2190476.19047619</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2492,7 +4371,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2502,17 +4381,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2522,7 +4401,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2532,47 +4411,47 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1642857.142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2190476.19047619</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1320000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2582,21 +4461,91 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>17676476.19047619</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3090476.19047619</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3870476.19047619</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tổng lương</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>24637428.57142857</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
+++ b/report_ca_nhan/NV-6 Lâm Thị Mỹ Hằng 7-2024.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,107 +458,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -593,76 +528,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Cắt mí</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+      <c r="H2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
       <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
         <v>8000000</v>
       </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
       <c r="L2" t="n">
-        <v/>
+        <v>8000000</v>
       </c>
       <c r="M2" t="n">
-        <v>8000000</v>
+        <v>0.13</v>
       </c>
       <c r="N2" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>1040000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -696,78 +584,31 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Mở góc mắt</t>
         </is>
       </c>
+      <c r="H3" t="n">
+        <v>4000000</v>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>2000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6000000</v>
       </c>
       <c r="L3" t="n">
-        <v>2000000</v>
+        <v>6000000</v>
       </c>
       <c r="M3" t="n">
-        <v>6000000</v>
+        <v>0.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z3" t="n">
         <v>700000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>80000</v>
       </c>
     </row>
     <row r="4">
@@ -801,74 +642,29 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+      <c r="H4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
       </c>
       <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
         <v>500000</v>
       </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
       <c r="L4" t="n">
-        <v/>
+        <v>500000</v>
       </c>
       <c r="M4" t="n">
-        <v>500000</v>
+        <v>0.1</v>
       </c>
       <c r="N4" t="n">
-        <v>500000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>500000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
         <v>50000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,76 +698,31 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>3000000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3000000</v>
       </c>
       <c r="L5" t="n">
         <v>3000000</v>
       </c>
       <c r="M5" t="n">
-        <v>3000000</v>
+        <v>0.1</v>
       </c>
       <c r="N5" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z5" t="n">
         <v>180000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>120000</v>
       </c>
     </row>
     <row r="6">
@@ -1005,74 +756,29 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>Tiêm botox</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+      <c r="H6" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="I6" t="n">
+        <v/>
       </c>
       <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
         <v>3000000</v>
       </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
       <c r="L6" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="M6" t="n">
-        <v>3000000</v>
+        <v>0.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
         <v>300000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1109,73 +815,26 @@
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+      <c r="H7" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v/>
       </c>
       <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
         <v>20000000</v>
       </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
       <c r="L7" t="n">
-        <v/>
+        <v>20000000</v>
       </c>
       <c r="M7" t="n">
-        <v>20000000</v>
+        <v>0.1</v>
       </c>
       <c r="N7" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
         <v>2000000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1209,74 +868,29 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+      <c r="H8" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="I8" t="n">
+        <v/>
       </c>
       <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
         <v>1200000</v>
       </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
       <c r="L8" t="n">
-        <v/>
+        <v>1200000</v>
       </c>
       <c r="M8" t="n">
-        <v>1200000</v>
+        <v>0.1</v>
       </c>
       <c r="N8" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
         <v>120000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1310,78 +924,31 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Đại phẫu</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
           <t xml:space="preserve">cắt sẹo </t>
         </is>
       </c>
+      <c r="H9" t="n">
+        <v>7000000</v>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+        <v>6000000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>13000000</v>
       </c>
       <c r="L9" t="n">
-        <v>6000000</v>
+        <v>13000000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000000</v>
+        <v>0.1</v>
       </c>
       <c r="N9" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Thảo</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Trần Khánh Hiệp</t>
-        </is>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z9" t="n">
         <v>1060000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>240000</v>
       </c>
     </row>
     <row r="10">
@@ -1415,135 +982,233 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+      <c r="H10" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="I10" t="n">
+        <v/>
       </c>
       <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
         <v>4500000</v>
       </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
       <c r="L10" t="n">
-        <v/>
+        <v>4500000</v>
       </c>
       <c r="M10" t="n">
-        <v>4500000</v>
+        <v>0.1</v>
       </c>
       <c r="N10" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
         <v>450000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>568</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1880000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>569</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>diệp thị mỹ hiền</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>570</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>đặng thị mỹ ngọc</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="I13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>48200000</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="M11" t="n">
-        <v>59200000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>59200000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>59200000</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="n">
-        <v>400000</v>
-      </c>
-      <c r="W11" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.9600000000000001</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>5900000</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>440000</v>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>68200000</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>82200000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>82200000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8080000</v>
       </c>
     </row>
   </sheetData>
@@ -1557,7 +1222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1598,107 +1263,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
     </row>
@@ -1733,78 +1333,31 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Mở góc mắt</t>
         </is>
       </c>
+      <c r="H2" t="n">
+        <v>4000000</v>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>2000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6000000</v>
       </c>
       <c r="L2" t="n">
-        <v>2000000</v>
+        <v>6000000</v>
       </c>
       <c r="M2" t="n">
-        <v>6000000</v>
+        <v>0.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>700000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>80000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="3">
@@ -1838,76 +1391,31 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>3000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3000000</v>
       </c>
       <c r="L3" t="n">
         <v>3000000</v>
       </c>
       <c r="M3" t="n">
-        <v>3000000</v>
+        <v>0.1</v>
       </c>
       <c r="N3" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>180000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>120000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="4">
@@ -1941,74 +1449,29 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+      <c r="H4" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
       </c>
       <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
         <v>4500000</v>
       </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
       <c r="L4" t="n">
-        <v/>
+        <v>4500000</v>
       </c>
       <c r="M4" t="n">
-        <v>4500000</v>
+        <v>0.1</v>
       </c>
       <c r="N4" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
         <v>450000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2042,74 +1505,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Trương Lâm Khanh</t>
-        </is>
+      <c r="H5" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="I5" t="n">
+        <v/>
       </c>
       <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
         <v>2600000</v>
       </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
       <c r="L5" t="n">
-        <v/>
+        <v>2600000</v>
       </c>
       <c r="M5" t="n">
-        <v>2600000</v>
+        <v>0.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2600000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2600000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
         <v>260000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2143,74 +1561,29 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+      <c r="H6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="I6" t="n">
+        <v/>
       </c>
       <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
         <v>1500000</v>
       </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
       <c r="L6" t="n">
-        <v/>
+        <v>1500000</v>
       </c>
       <c r="M6" t="n">
-        <v>1500000</v>
+        <v>0.1</v>
       </c>
       <c r="N6" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
         <v>150000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2247,75 +1620,28 @@
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
+      <c r="H7" t="n">
+        <v>10000000</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>8000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>18000000</v>
       </c>
       <c r="L7" t="n">
-        <v>8000000</v>
+        <v>9500000</v>
       </c>
       <c r="M7" t="n">
-        <v>18000000</v>
+        <v>0.1</v>
       </c>
       <c r="N7" t="n">
-        <v>9500000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>9500000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z7" t="n">
         <v>950000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2349,74 +1675,29 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
           <t>Tiêm botox</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+      <c r="H8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v/>
       </c>
       <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
         <v>3000000</v>
       </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
       <c r="L8" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="M8" t="n">
-        <v>3000000</v>
+        <v>0.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
         <v>300000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2450,76 +1731,29 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
           <t>Cắt mí</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Nguyễn Phúc Nam</t>
-        </is>
+      <c r="H9" t="n">
+        <v>11500000</v>
+      </c>
+      <c r="I9" t="n">
+        <v/>
       </c>
       <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
         <v>11500000</v>
       </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
       <c r="L9" t="n">
-        <v/>
+        <v>9000000</v>
       </c>
       <c r="M9" t="n">
-        <v>11500000</v>
+        <v>0.1</v>
       </c>
       <c r="N9" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1350000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="10">
@@ -2553,135 +1787,175 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+      <c r="H10" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="I10" t="n">
+        <v/>
       </c>
       <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
         <v>4500000</v>
       </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
       <c r="L10" t="n">
-        <v/>
+        <v>4500000</v>
       </c>
       <c r="M10" t="n">
-        <v>4500000</v>
+        <v>0.1</v>
       </c>
       <c r="N10" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
         <v>450000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>569</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>diệp thị mỹ hiền</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="I11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>570</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>đặng thị mỹ ngọc</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>41600000</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>44600000</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>13000000</v>
       </c>
-      <c r="M11" t="n">
-        <v>54600000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>43600000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>43600000</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="n">
-        <v>450000</v>
-      </c>
-      <c r="W11" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.9800000000000001</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>200000</v>
+      <c r="K13" t="n">
+        <v>57600000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>46600000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4660000</v>
       </c>
     </row>
   </sheetData>
@@ -2695,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2736,107 +2010,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
+          <t>Chiết khấu bác sĩ 2</t>
         </is>
       </c>
     </row>
@@ -2874,75 +2083,26 @@
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+      <c r="H2" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
       <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
         <v>18000000</v>
       </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
       <c r="L2" t="n">
-        <v/>
+        <v>18000000</v>
       </c>
       <c r="M2" t="n">
-        <v>18000000</v>
+        <v>0.06</v>
       </c>
       <c r="N2" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
+        <v>1080000</v>
       </c>
     </row>
     <row r="3">
@@ -2959,51 +2119,24 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>18000000</v>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>18000000</v>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="M3" t="n">
-        <v>18000000</v>
+        <v>0.06</v>
       </c>
       <c r="N3" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
+        <v>1080000</v>
       </c>
     </row>
   </sheetData>
@@ -3017,7 +2150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3028,97 +2161,97 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Ngày thực hiện</t>
+          <t>Tiền tố</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Ngày thu</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>notion id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mã đơn thu nợ</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Cơ sở</t>
+          <t>Đơn nợ</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>id đơn nợ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Lượng thu</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Đơn nợ</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale chính</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Đã thanh toán</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
+          <t>Chiết khấu sale chính</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -3128,1094 +2261,941 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>id sale chính</t>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>id sale phụ</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>id bác sĩ 1</t>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>id bác sĩ 2</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Chiết khấu bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-21-2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>132</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>07-01-2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>862cb20b-6bc0-44dc-9c77-2530c9289295</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>132</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>HD-LUXURY-196</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02e96089-5b6d-4ac0-b25a-fe2a7137c837</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6000000</v>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>lê hoàng phúc</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HD-LUXURY-196</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
+      <c r="K2" t="n">
+        <v>30000000</v>
+      </c>
       <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
         <v>30000000</v>
       </c>
-      <c r="M2" t="n">
-        <v/>
-      </c>
-      <c r="N2" t="n">
-        <v/>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>CTV Ngoài</t>
         </is>
       </c>
-      <c r="P2" t="n">
-        <v/>
-      </c>
       <c r="Q2" t="n">
-        <v>3000000</v>
+        <v/>
       </c>
       <c r="R2" t="n">
-        <v>21000000</v>
+        <v>0.17</v>
       </c>
       <c r="S2" t="n">
-        <v>0.17</v>
+        <v>1020000</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
+      <c r="U2" t="n">
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v/>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>600000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1020000</v>
-      </c>
-      <c r="AB2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-16-2024</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>136</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>07-03-2024</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>88d7e095-af00-47a6-82ca-368c6339728b</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>136</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>HD-LUXURY-190</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>fb7dadd2-75d0-40db-bb11-e23d060e0d89</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5000000</v>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Quỳnh Như</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HD-LUXURY-190</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
+      <c r="K3" t="n">
+        <v>40000000</v>
+      </c>
       <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
         <v>40000000</v>
       </c>
-      <c r="M3" t="n">
-        <v/>
-      </c>
-      <c r="N3" t="n">
-        <v/>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" t="n">
+        <v>39000000</v>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="P3" t="n">
-        <v/>
-      </c>
       <c r="Q3" t="n">
-        <v>25000000</v>
+        <v/>
       </c>
       <c r="R3" t="n">
-        <v>39000000</v>
+        <v>0.15</v>
       </c>
       <c r="S3" t="n">
-        <v>0.15</v>
+        <v>750000</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
+      <c r="U3" t="n">
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
+        <v>0.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>500000</v>
       </c>
       <c r="X3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>500000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>750000</v>
-      </c>
-      <c r="AB3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06-19-2024</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>140</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>07-07-2024</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>fc4e35ab-9e43-4ae3-be2f-317aa19b638b</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>140</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>HD-LUXURY-442</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9b808ccf-2311-41f2-b949-9c137995a37f</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3000000</v>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Trần Thị Lan Trinh</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>HD-LUXURY-442</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
+      <c r="K4" t="n">
+        <v>15000000</v>
+      </c>
       <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
+      <c r="N4" t="n">
         <v>15000000</v>
       </c>
-      <c r="M4" t="n">
-        <v/>
-      </c>
-      <c r="N4" t="n">
-        <v/>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
       <c r="Q4" t="n">
-        <v>10000000</v>
+        <v/>
       </c>
       <c r="R4" t="n">
-        <v>15000000</v>
+        <v>0.1</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1</v>
+        <v>300000</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
+      <c r="U4" t="n">
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>300000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>300000</v>
-      </c>
-      <c r="AB4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06-19-2024</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>141</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>07-07-2024</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5ac076b8-df5c-4bfb-9e9b-29c50e554cb0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>141</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>HD-LUXURY-442</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9b808ccf-2311-41f2-b949-9c137995a37f</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2000000</v>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Trần Thị Lan Trinh</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HD-LUXURY-442</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
+      <c r="K5" t="n">
+        <v>15000000</v>
+      </c>
       <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
         <v>15000000</v>
       </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
       <c r="Q5" t="n">
-        <v>10000000</v>
+        <v/>
       </c>
       <c r="R5" t="n">
-        <v>15000000</v>
+        <v>0.1</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1</v>
+        <v>200000</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
+      <c r="U5" t="n">
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v/>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>200000</v>
-      </c>
-      <c r="AB5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06-30-2024</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>144</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>07-07-2024</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>59e6b0af-58c2-40e0-acb9-74a39fc79966</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>144</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>HD-LUXURY-502</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7fd92044-b934-43de-9646-21004f1e6711</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2000000</v>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>HD-LUXURY-502</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>8450000</v>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v>8450000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4850000</v>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>8450000</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
       <c r="Q6" t="n">
-        <v>2850000</v>
+        <v/>
       </c>
       <c r="R6" t="n">
-        <v>4850000</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>f973382b-037a-4eb1-84bc-e9e5318184b8</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>200000</v>
       </c>
       <c r="X6" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>260000</v>
-      </c>
-      <c r="AB6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-25-2024</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>146</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>07-07-2024</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>05531b63-f428-4450-86ab-4cb31890c9b7</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>146</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>HD-LUXURY-198</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2f04163e-5cde-4c1f-86f8-62cc6a7fb1ee</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1000000</v>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>trần kiều trinh</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>HD-LUXURY-198</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
+      <c r="K7" t="n">
+        <v>19000000</v>
+      </c>
       <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
         <v>19000000</v>
       </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
       <c r="Q7" t="n">
-        <v>15000000</v>
+        <v/>
       </c>
       <c r="R7" t="n">
-        <v>19000000</v>
+        <v>0.1</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1</v>
+        <v>100000</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
+      <c r="U7" t="n">
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v/>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="AB7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02-27-2024</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>147</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>07-12-2024</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>63356797-89d1-493a-98a6-7be16bbe2231</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>147</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>HD-LUXURY-120</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1936e1d1-5f3d-4bd1-b469-a1951eadb081</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1000000</v>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>C.Phượng</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>HD-LUXURY-120</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
+      <c r="K8" t="n">
+        <v>12500000</v>
+      </c>
       <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
         <v>12500000</v>
       </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" t="n">
+        <v>11500000</v>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
       <c r="Q8" t="n">
-        <v>6500000</v>
+        <v/>
       </c>
       <c r="R8" t="n">
-        <v>11500000</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>0.1</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>3d301dfe-6e3d-4d28-a249-1fd5fac9abd3</t>
-        </is>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
+      <c r="W8" t="n">
+        <v>100000</v>
       </c>
       <c r="X8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>100000</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>100000</v>
-      </c>
-      <c r="AB8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05-30-2024</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>150</v>
+      </c>
+      <c r="C9" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>07-12-2024</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>a2d355ac-963d-458b-92c8-6ab6d77e9bd6</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>150</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>HD-LUXURY-367</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>f064dabe-fb0d-40bd-9289-33c46d63ae56</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>500000</v>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Phan Yến Nhi</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>HD-LUXURY-367</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
+      <c r="K9" t="n">
+        <v>9000000</v>
+      </c>
       <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
         <v>9000000</v>
       </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
       <c r="Q9" t="n">
-        <v>4000000</v>
+        <v/>
       </c>
       <c r="R9" t="n">
-        <v>6000000</v>
+        <v>0.13</v>
       </c>
       <c r="S9" t="n">
-        <v>0.13</v>
+        <v>65000</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
+      <c r="U9" t="n">
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
+        <v>0.1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>50000</v>
       </c>
       <c r="X9" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>50000</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>65000</v>
-      </c>
-      <c r="AB9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-16-2024</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>155</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>07-16-2024</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>393f2f76-00f6-413d-8833-3d400436176b</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>155</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>HD-LUXURY-192</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>02c49e05-3b89-4b64-a5cb-fcfb2bbdc46c</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4200000</v>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Tiến</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>HD-LUXURY-192</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
+      <c r="K10" t="n">
+        <v>25000000</v>
+      </c>
       <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
         <v>25000000</v>
       </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" t="n">
+        <v>14600000</v>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
       <c r="Q10" t="n">
-        <v>2000000</v>
+        <v/>
       </c>
       <c r="R10" t="n">
-        <v>14600000</v>
+        <v>0.13</v>
       </c>
       <c r="S10" t="n">
-        <v>0.13</v>
+        <v>546000</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
-        </is>
+      <c r="U10" t="n">
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>420000</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>546000</v>
-      </c>
-      <c r="AB10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="B11" t="n">
         <v>9</v>
       </c>
+      <c r="C11" t="n">
+        <v>24700000</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>24700000</v>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
+      <c r="K11" t="n">
         <v>173950000</v>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
       <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="inlineStr"/>
+        <v>173950000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>145950000</v>
+      </c>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>78350000</v>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>145950000</v>
+        <v>0.88</v>
       </c>
       <c r="S11" t="n">
-        <v>1.11</v>
+        <v>2981000</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>850000</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
       <c r="Y11" t="n">
-        <v>2470000</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>3341000</v>
-      </c>
-      <c r="AB11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,7 +3210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4241,7 +3221,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Danh mục</t>
+          <t>Danh mục lương</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -4255,7 +3235,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -4265,7 +3245,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560000</v>
+        <v>595000</v>
       </c>
     </row>
     <row r="4">
@@ -4275,7 +3255,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2190476.19047619</v>
+        <v>2327380.952380952</v>
       </c>
     </row>
     <row r="5">
@@ -4285,7 +3265,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7821000</v>
+        <v>4840000</v>
       </c>
     </row>
     <row r="6">
@@ -4305,7 +3285,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4275000</v>
+        <v>3460000</v>
       </c>
     </row>
     <row r="8">
@@ -4341,37 +3321,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2450000</v>
+        <v>3531000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2190476.19047619</v>
+        <v>-2450000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2327380.952380952</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4381,27 +3361,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>900000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4411,7 +3391,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4421,57 +3401,57 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2190476.19047619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1320000</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2327380.952380952</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>360000</v>
+        <v>3240000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4481,17 +3461,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4501,51 +3481,81 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17676476.19047619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3090476.19047619</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3870476.19047619</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13383380.95238095</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3227380.952380952</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6167380.952380952</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>24637428.57142857</v>
+      <c r="B34" t="n">
+        <v>22778142.85714285</v>
       </c>
     </row>
   </sheetData>
